--- a/documentation/Denas Sprint Backlog Burndown.xlsx
+++ b/documentation/Denas Sprint Backlog Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csuser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC46E7C0-577B-4B2B-8197-BD6FC92802BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBEBA47-B0BB-4A3E-B54D-BE618948F76E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Related User Story</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Estimate Totals</t>
   </si>
   <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Store Library of Songs</t>
-  </si>
-  <si>
-    <t>Implement Library Page (display songs list, display song details, can open add)</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -114,19 +105,7 @@
     <t>Integrate valididation for information entered/missing</t>
   </si>
   <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Integrate validation for information entered/missing</t>
-  </si>
-  <si>
-    <t>Ability to select a song and have it's information presented upon selection</t>
-  </si>
-  <si>
-    <t>Add Song (enter song info, save song, cancel)</t>
   </si>
   <si>
     <t>Integrate error handling/messaging for missing required information</t>
@@ -203,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +219,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -365,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -379,23 +352,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,13 +369,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,12 +491,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:f>Sheet1!$C$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1288,12 +1253,12 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1585,45 +1550,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,501 +1602,355 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
-        <v>3</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
-        <v>7</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="26"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="26"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>43</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D9" s="18"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>45</v>
+      <c r="D11" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>43</v>
+      <c r="D16" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="18"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="18"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>44</v>
-      </c>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="13">
+        <f>SUM(C3:C21)</f>
+        <v>44</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="7">
+        <f>SUM(E3:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <f>SUM(F3:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(G3:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <f>SUM(H3:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="8">
-        <v>3</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="18">
-        <f>SUM(C3:C32)</f>
-        <v>65</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="7">
-        <f t="shared" ref="E33:H33" si="0">SUM(E3:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="D26:D32"/>
+  <mergeCells count="8">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D16:D20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" xr:uid="{89EC0EEF-75A6-DB48-B7E6-E4AB26FBB587}"/>
-    <hyperlink ref="A36" r:id="rId2" xr:uid="{B5B3748E-A8D6-1E4B-A0E2-DF646C77CA10}"/>
-    <hyperlink ref="A35" r:id="rId3" xr:uid="{0523AF4F-5A40-0C43-B5CB-B372E625190F}"/>
-    <hyperlink ref="A37" r:id="rId4" xr:uid="{69C1521D-A61E-A948-90EC-D471B26F33D5}"/>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{89EC0EEF-75A6-DB48-B7E6-E4AB26FBB587}"/>
+    <hyperlink ref="A25" r:id="rId2" xr:uid="{B5B3748E-A8D6-1E4B-A0E2-DF646C77CA10}"/>
+    <hyperlink ref="A24" r:id="rId3" xr:uid="{0523AF4F-5A40-0C43-B5CB-B372E625190F}"/>
+    <hyperlink ref="A26" r:id="rId4" xr:uid="{69C1521D-A61E-A948-90EC-D471B26F33D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
